--- a/mcmods.xlsx
+++ b/mcmods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Mods</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Wichtig?</t>
+  </si>
+  <si>
+    <t>hoffentlich funktionstüchtig</t>
+  </si>
+  <si>
+    <t>nicht verfügbar</t>
+  </si>
+  <si>
+    <t>verfügbar</t>
+  </si>
+  <si>
+    <t>Legende</t>
   </si>
 </sst>
 </file>
@@ -216,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -231,6 +243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -511,19 +524,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G67"/>
+  <dimension ref="A3:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -545,8 +559,11 @@
       <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -558,8 +575,11 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
@@ -571,8 +591,11 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -582,8 +605,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
@@ -596,7 +622,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -607,7 +633,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -620,7 +646,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
@@ -633,7 +659,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -646,7 +672,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
@@ -659,7 +685,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
@@ -672,7 +698,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -683,7 +709,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
@@ -696,7 +722,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>31</v>
       </c>

--- a/mcmods.xlsx
+++ b/mcmods.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A3:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>

--- a/mcmods.xlsx
+++ b/mcmods.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A3:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="I6" s="7" t="s">
@@ -619,7 +619,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
@@ -754,10 +754,10 @@
         <v>28</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -826,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="6"/>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>

--- a/mcmods.xlsx
+++ b/mcmods.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A3:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>35</v>
       </c>

--- a/mcmods.xlsx
+++ b/mcmods.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max.DESKTOP-8EH97AE\Documents\Minecraft\MC-Mods\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,126 +26,122 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
-    <t xml:space="preserve">Wichtig?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">architectury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verfügbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">betterf3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicht verfügbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoffentlich funktionstüchtig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bobby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citresewn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clothconfig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynamicfps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabric api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabric language kotlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambdynamiclights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lithium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modmenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mousewheelie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">musiccontrol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sodiumfabric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soundphysicsremastered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viafabric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worldedit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worldeditcui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xaeros minimap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xaeros wolrdmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yetanotherconfiglib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zoomify</t>
+    <t>Wichtig?</t>
+  </si>
+  <si>
+    <t>Mods</t>
+  </si>
+  <si>
+    <t>1.20.4</t>
+  </si>
+  <si>
+    <t>1.21.0</t>
+  </si>
+  <si>
+    <t>1.21.4</t>
+  </si>
+  <si>
+    <t>1.21.10</t>
+  </si>
+  <si>
+    <t>1.21.11</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>architectury</t>
+  </si>
+  <si>
+    <t>verfügbar</t>
+  </si>
+  <si>
+    <t>betterf3</t>
+  </si>
+  <si>
+    <t>nicht verfügbar</t>
+  </si>
+  <si>
+    <t>blur</t>
+  </si>
+  <si>
+    <t>hoffentlich funktionstüchtig</t>
+  </si>
+  <si>
+    <t>bobby</t>
+  </si>
+  <si>
+    <t>citresewn</t>
+  </si>
+  <si>
+    <t>clothconfig</t>
+  </si>
+  <si>
+    <t>dynamicfps</t>
+  </si>
+  <si>
+    <t>fabric api</t>
+  </si>
+  <si>
+    <t>fabric language kotlin</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>jei</t>
+  </si>
+  <si>
+    <t>lambdynamiclights</t>
+  </si>
+  <si>
+    <t>lithium</t>
+  </si>
+  <si>
+    <t>modmenu</t>
+  </si>
+  <si>
+    <t>mousewheelie</t>
+  </si>
+  <si>
+    <t>musiccontrol</t>
+  </si>
+  <si>
+    <t>sodiumfabric</t>
+  </si>
+  <si>
+    <t>soundphysicsremastered</t>
+  </si>
+  <si>
+    <t>viafabric</t>
+  </si>
+  <si>
+    <t>worldedit</t>
+  </si>
+  <si>
+    <t>worldeditcui</t>
+  </si>
+  <si>
+    <t>xaeros minimap</t>
+  </si>
+  <si>
+    <t>xaeros wolrdmap</t>
+  </si>
+  <si>
+    <t>yetanotherconfiglib</t>
+  </si>
+  <si>
+    <t>zoomify</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,22 +150,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -173,7 +158,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -195,7 +180,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,118 +189,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor rgb="FFC55A11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -374,60 +320,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -459,7 +421,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -483,7 +445,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -543,33 +505,32 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -611,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -627,7 +588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -641,7 +602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -654,7 +615,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -665,7 +626,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -678,7 +639,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -691,7 +652,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -704,7 +665,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -717,7 +678,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -730,7 +691,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>22</v>
@@ -741,7 +702,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -754,7 +715,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -767,7 +728,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -780,7 +741,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>26</v>
@@ -791,7 +752,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>27</v>
@@ -802,7 +763,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -815,7 +776,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -828,7 +789,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -841,7 +802,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>31</v>
@@ -852,7 +813,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>32</v>
@@ -861,9 +822,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="10"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
@@ -876,7 +837,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -889,7 +850,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
@@ -902,7 +863,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
@@ -915,19 +876,14 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0" t="n">
-        <f aca="false">SUM(C42:C57)</f>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f>SUM(C42:C57)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mcmods.xlsx
+++ b/mcmods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Wichtig?</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>zoomify</t>
+  </si>
+  <si>
+    <t>bettermountHUD</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="A3:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +594,7 @@
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -603,11 +606,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -616,35 +617,35 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -657,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -670,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -683,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -692,9 +693,11 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -703,11 +706,9 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -720,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -733,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -742,9 +743,11 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -755,33 +758,31 @@
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -794,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -803,9 +804,11 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -816,33 +819,31 @@
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -855,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -868,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -876,6 +877,19 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>SUM(C42:C57)</f>

--- a/mcmods.xlsx
+++ b/mcmods.xlsx
@@ -523,7 +523,7 @@
   <dimension ref="A3:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="11"/>
       <c r="I5" s="8" t="s">
         <v>12</v>
       </c>

--- a/mcmods.xlsx
+++ b/mcmods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Wichtig?</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>bettermountHUD</t>
+  </si>
+  <si>
+    <t>entity culling</t>
+  </si>
+  <si>
+    <t>immediatly fast</t>
+  </si>
+  <si>
+    <t>ferritcore</t>
+  </si>
+  <si>
+    <t>shulkerbox tooltip</t>
+  </si>
+  <si>
+    <t>skinlayers 3d</t>
   </si>
 </sst>
 </file>
@@ -522,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,11 +682,9 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -684,7 +697,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -697,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -706,9 +719,11 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -721,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -734,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -743,11 +758,9 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -756,9 +769,11 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -767,22 +782,24 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -791,11 +808,9 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -804,22 +819,20 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -830,20 +843,20 @@
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -856,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -869,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -878,11 +891,9 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -890,6 +901,69 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>SUM(C42:C57)</f>

--- a/mcmods.xlsx
+++ b/mcmods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Wichtig?</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>skinlayers 3d</t>
+  </si>
+  <si>
+    <t>continuity</t>
   </si>
 </sst>
 </file>
@@ -537,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,11 +672,9 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -682,9 +683,11 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -693,11 +696,9 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -710,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -723,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -736,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -749,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -758,9 +759,11 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -769,11 +772,9 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -786,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -799,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -808,9 +809,11 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -821,29 +824,29 @@
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -852,11 +855,9 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -869,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -882,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -891,9 +892,11 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -904,33 +907,31 @@
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -943,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -956,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -964,6 +965,19 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>SUM(C42:C57)</f>
